--- a/resource/other/frase.xlsx
+++ b/resource/other/frase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\User\desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\tl\CREATE\MBR\MiBocaRecuerda\resource\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296577C4-6324-41E8-AEC1-D2547E26229F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A5B1B6-B12B-44A7-9E38-3C4BB86D6949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31140" yWindow="2175" windowWidth="23865" windowHeight="14025" activeTab="6" xr2:uid="{25451108-85AD-4399-B6FF-7451FAC70410}"/>
+    <workbookView xWindow="31125" yWindow="2085" windowWidth="23865" windowHeight="14025" firstSheet="1" activeTab="7" xr2:uid="{25451108-85AD-4399-B6FF-7451FAC70410}"/>
   </bookViews>
   <sheets>
     <sheet name="COLとESPちがい" sheetId="4" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="原因・結果" sheetId="5" r:id="rId5"/>
     <sheet name="譲歩" sheetId="6" r:id="rId6"/>
     <sheet name="aunaun" sheetId="7" r:id="rId7"/>
+    <sheet name="A propósito..." sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="571">
   <si>
     <t xml:space="preserve"> フィラー </t>
   </si>
@@ -1623,13 +1624,406 @@
   </si>
   <si>
     <t>この違いを覚えておけば、混乱せずに使い分けられますよ！😃</t>
+  </si>
+  <si>
+    <t>コロンビアでよく使われる「そういえば」に相当する表現を紹介します！🇨🇴✨</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">👉 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>「そういえば…」「ところで…」</t>
+    </r>
+  </si>
+  <si>
+    <t>💡 話を思い出したときや、関連する話題を出すときに使います。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">📌 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>例文</t>
+    </r>
+  </si>
+  <si>
+    <t>A propósito, ¿cómo te fue en la entrevista?</t>
+  </si>
+  <si>
+    <t>→「そういえば、面接どうだった？」</t>
+  </si>
+  <si>
+    <t>A propósito, ¿qué pasó con el proyecto?</t>
+  </si>
+  <si>
+    <t>→「そういえば、あのプロジェクトどうなった？」</t>
+  </si>
+  <si>
+    <t>2️⃣ Hablando de eso...</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">👉 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>「それに関して言えば…」「そういえば…」</t>
+    </r>
+  </si>
+  <si>
+    <t>💡 相手が話した内容に関連して、何かを思い出したときに使います。</t>
+  </si>
+  <si>
+    <t>Hablando de eso, ayer vi a Juan en el centro.</t>
+  </si>
+  <si>
+    <t>→「そういえば、昨日フアンを街で見かけたよ。」</t>
+  </si>
+  <si>
+    <t>Hablando de eso, ¿supiste lo que pasó con Laura?</t>
+  </si>
+  <si>
+    <t>→「そういえば、ラウラの件聞いた？」</t>
+  </si>
+  <si>
+    <t>3️⃣ Ahora que lo mencionas...</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">👉 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>「今それを言われて思い出したけど…」「そういえば…」</t>
+    </r>
+  </si>
+  <si>
+    <t>💡 相手の言葉をきっかけに何かを思い出したときに使います。</t>
+  </si>
+  <si>
+    <t>Ahora que lo mencionas, tengo que llamar a mi mamá.</t>
+  </si>
+  <si>
+    <t>→「そういえば、母に電話しなきゃ。」</t>
+  </si>
+  <si>
+    <t>Ahora que lo mencionas, vi algo parecido en la tele.</t>
+  </si>
+  <si>
+    <t>→「そういえば、テレビで似たようなの見たよ。」</t>
+  </si>
+  <si>
+    <t>4️⃣ Se me olvidaba...</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">👉 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>「忘れるところだったけど…」「そういえば…」</t>
+    </r>
+  </si>
+  <si>
+    <t>💡 何かを思い出したときや、言い忘れていたことを伝えるときに使います。</t>
+  </si>
+  <si>
+    <t>Se me olvidaba, mañana no voy a poder ir.</t>
+  </si>
+  <si>
+    <t>→「そういえば、明日は行けないんだった。」</t>
+  </si>
+  <si>
+    <t>Se me olvidaba decirte que cambiaron la reunión.</t>
+  </si>
+  <si>
+    <t>→「そういえば、会議の時間が変わったって言い忘れてた。」</t>
+  </si>
+  <si>
+    <t>5️⃣ Ah, verdad...</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">👉 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>「あっ、そうだった…」「そういえば…」</t>
+    </r>
+  </si>
+  <si>
+    <t>💡 カジュアルな場面で、ふと思い出したときに使います。</t>
+  </si>
+  <si>
+    <t>Ah, verdad, hoy es el cumpleaños de Ana.</t>
+  </si>
+  <si>
+    <t>→「そういえば、今日はアナの誕生日だった。」</t>
+  </si>
+  <si>
+    <t>Ah, verdad, tenía que comprar leche.</t>
+  </si>
+  <si>
+    <t>→「そういえば、牛乳買わなきゃだった。」</t>
+  </si>
+  <si>
+    <t>🎯 まとめ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>「A propósito…」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → 一般的に「そういえば」「ところで」</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>「Hablando de eso…」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → 会話の流れに乗って「そういえば」</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>「Ahora que lo mencionas…」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → 相手の話をきっかけに思い出したとき</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>「Se me olvidaba…」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → 言い忘れていたことを思い出したとき</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>「Ah, verdad…」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → カジュアルに「そういえば」</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">コロンビアでは </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>「A propósito」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> や </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>「Hablando de eso」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> が特によく使われます！💬</t>
+    </r>
+  </si>
+  <si>
+    <t>シチュエーションに応じて使い分けてみてください！😃</t>
+  </si>
+  <si>
+    <t>1️⃣ A propósito...</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1642,6 +2036,33 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1711,7 +2132,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1734,6 +2155,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4663,7 +5096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437181D4-1CBF-46A6-9BA8-47B50B58E27E}">
   <dimension ref="B2:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
@@ -4910,4 +5343,295 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8327A69-B02A-4A4E-9903-9E66D527DCA3}">
+  <dimension ref="B2:B88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="B4" s="8" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B11" s="10" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B12" s="9" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B14" s="10" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B15" s="9" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="B19" s="8" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B26" s="10" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B27" s="9" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B29" s="10" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B30" s="9" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="B34" s="8" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B36" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B40" s="9"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B41" s="10" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B42" s="9" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B43" s="9"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B44" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B45" s="9" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="B49" s="8" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B51" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B52" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B54" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B55" s="9"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B56" s="10" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B57" s="9" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B58" s="9"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B59" s="10" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B60" s="9" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="B64" s="8" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B66" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B67" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B69" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B70" s="9"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B71" s="10" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B72" s="9" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B73" s="9"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B74" s="10" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B75" s="9" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" ht="30" x14ac:dyDescent="0.4">
+      <c r="B79" s="11" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B81" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B82" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B83" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B84" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B85" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B87" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B88" t="s">
+        <v>569</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>